--- a/Sprint2/Sprint_II_Backlog.xlsx
+++ b/Sprint2/Sprint_II_Backlog.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Software_Engineer_Starter\Sprint2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B2B75C-B48F-425D-82BD-E42B097EFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Example" sheetId="1" r:id="rId4"/>
+    <sheet name="Example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="4kfaUXMmKQezouMrRRvgn3fzpYkT3papB+UeOKa58Rk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="22rXhluUW+da1msYKwIvyIPCeLpAPF2tUt1qdOUzqIw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -171,62 +189,106 @@
     <t>Test Script</t>
   </si>
   <si>
-    <t>Ter Kate</t>
+    <t>KhetTer</t>
   </si>
   <si>
     <t>Prepare Data (TH EN ID)</t>
   </si>
   <si>
     <t>Ter Jane</t>
+  </si>
+  <si>
+    <t>Sprint backlog + Burndownchart</t>
+  </si>
+  <si>
+    <t>ADAPT_BP</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>StudenID</t>
+  </si>
+  <si>
+    <t>643020610-1</t>
+  </si>
+  <si>
+    <t>นาย ธนพนธ์ รวิภาสกร</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>643020613-5</t>
+  </si>
+  <si>
+    <t>นาย ธนากร ผาเป้า</t>
+  </si>
+  <si>
+    <t>643020624-0</t>
+  </si>
+  <si>
+    <t>นางสาว ปิยาภัสร์ สติภา</t>
+  </si>
+  <si>
+    <t>643021319-0</t>
+  </si>
+  <si>
+    <t>นางสาว ทอเนีย ทะเฮรี</t>
+  </si>
+  <si>
+    <t>643021418-8</t>
+  </si>
+  <si>
+    <t>นาย ณัฐพงษ์ แก่นกระโทก</t>
+  </si>
+  <si>
+    <t>643021421-9</t>
+  </si>
+  <si>
+    <t>นาย ธนพงษ์ เจริญพันธ์</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20.0"/>
-      <color theme="1"/>
-      <name val="Cordia New"/>
-    </font>
-    <font>
-      <sz val="20.0"/>
-      <color theme="1"/>
-      <name val="Cordia New"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20.0"/>
-      <color rgb="FF000000"/>
-      <name val="Cordia New"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="20.0"/>
-      <color rgb="FF000000"/>
-      <name val="Cordia New"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="&quot;Cordia New&quot;"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -234,7 +296,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,15 +347,24 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
-    <border/>
+  <borders count="35">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -305,6 +376,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -316,27 +389,35 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -346,14 +427,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -362,9 +447,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -373,9 +460,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -390,6 +479,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -404,6 +494,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -415,331 +506,502 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -929,1568 +1191,1748 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y995"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="2" width="30.71"/>
-    <col customWidth="1" min="3" max="3" width="47.86"/>
-    <col customWidth="1" min="4" max="4" width="20.29"/>
-    <col customWidth="1" min="5" max="11" width="7.14"/>
-    <col customWidth="1" min="12" max="20" width="8.71"/>
+    <col min="1" max="1" width="11.26171875" customWidth="1"/>
+    <col min="2" max="2" width="30.68359375" customWidth="1"/>
+    <col min="3" max="3" width="47.83984375" customWidth="1"/>
+    <col min="4" max="4" width="21.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="7.15625" customWidth="1"/>
+    <col min="12" max="20" width="8.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
-    <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:25" ht="33.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
     </row>
-    <row r="4" ht="46.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:25" ht="46.5" customHeight="1" thickBot="1">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
     </row>
-    <row r="5" ht="43.5" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>7.0</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+    <row r="5" spans="1:25" ht="43.5" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
     </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="D6" s="26">
+        <v>3</v>
+      </c>
+      <c r="E6" s="27">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3</v>
+      </c>
+      <c r="G6" s="27">
+        <v>3</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="67">
+        <v>1</v>
+      </c>
+      <c r="N6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="P6" s="26" t="s">
+      <c r="O6" s="45">
+        <v>4</v>
+      </c>
+      <c r="P6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="27" t="s">
+      <c r="V6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="27" t="s">
+      <c r="W6" s="51" t="s">
         <v>19</v>
       </c>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
     </row>
-    <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="P7" s="26">
+      <c r="D7" s="26">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27">
+        <v>3</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45">
+        <v>4</v>
+      </c>
+      <c r="P7" s="46">
         <f>D21</f>
         <v>86</v>
       </c>
-      <c r="Q7" s="27">
-        <v>86.0</v>
-      </c>
-      <c r="R7" s="27">
-        <v>86.0</v>
-      </c>
-      <c r="S7" s="27">
-        <v>86.0</v>
-      </c>
-      <c r="T7" s="27">
-        <v>74.0</v>
-      </c>
-      <c r="U7" s="27">
-        <v>50.0</v>
-      </c>
-      <c r="V7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="W7" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="Q7" s="46">
+        <v>86</v>
+      </c>
+      <c r="R7" s="46">
+        <v>86</v>
+      </c>
+      <c r="S7" s="46">
+        <v>86</v>
+      </c>
+      <c r="T7" s="46">
+        <v>74</v>
+      </c>
+      <c r="U7" s="46">
+        <v>50</v>
+      </c>
+      <c r="V7" s="46">
+        <v>0</v>
+      </c>
+      <c r="W7" s="51">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="31">
-        <v>5.0</v>
-      </c>
-      <c r="N8" s="24" t="s">
+      <c r="D8" s="26">
+        <v>3</v>
+      </c>
+      <c r="E8" s="27">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="68">
+        <v>5</v>
+      </c>
+      <c r="N8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
+      <c r="O8" s="45">
+        <v>4</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
     </row>
-    <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="D9" s="26">
+        <v>3</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>3</v>
+      </c>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45">
+        <v>4</v>
+      </c>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
     </row>
-    <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="N10" s="24" t="s">
+      <c r="D10" s="26">
+        <v>4</v>
+      </c>
+      <c r="E10" s="27">
+        <v>4</v>
+      </c>
+      <c r="F10" s="27">
+        <v>4</v>
+      </c>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="27">
+        <v>4</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="69">
+        <v>3</v>
+      </c>
+      <c r="N10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="O10" s="45">
+        <v>6</v>
+      </c>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="F11" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="N11" s="24" t="s">
+      <c r="D11" s="26">
+        <v>8</v>
+      </c>
+      <c r="E11" s="27">
+        <v>8</v>
+      </c>
+      <c r="F11" s="27">
+        <v>8</v>
+      </c>
+      <c r="G11" s="27">
+        <v>8</v>
+      </c>
+      <c r="H11" s="27">
+        <v>8</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="70">
+        <v>4</v>
+      </c>
+      <c r="N11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="O11" s="45">
+        <v>10</v>
+      </c>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
     </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="F12" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="N12" s="24" t="s">
+      <c r="D12" s="26">
+        <v>4</v>
+      </c>
+      <c r="E12" s="27">
+        <v>4</v>
+      </c>
+      <c r="F12" s="27">
+        <v>4</v>
+      </c>
+      <c r="G12" s="27">
+        <v>4</v>
+      </c>
+      <c r="H12" s="27">
+        <v>4</v>
+      </c>
+      <c r="I12" s="27">
+        <v>4</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="70">
+        <v>4</v>
+      </c>
+      <c r="N12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="O12" s="45">
+        <v>4</v>
+      </c>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
     </row>
-    <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="19" t="s">
+    <row r="13" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="N13" s="24" t="s">
+      <c r="D13" s="26">
+        <v>8</v>
+      </c>
+      <c r="E13" s="27">
+        <v>8</v>
+      </c>
+      <c r="F13" s="27">
+        <v>8</v>
+      </c>
+      <c r="G13" s="27">
+        <v>8</v>
+      </c>
+      <c r="H13" s="27">
+        <v>8</v>
+      </c>
+      <c r="I13" s="27">
+        <v>8</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="28">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="71">
+        <v>5</v>
+      </c>
+      <c r="N13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="O13" s="45">
+        <v>4</v>
+      </c>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
     </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="19" t="s">
+    <row r="14" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="N14" s="24" t="s">
+      <c r="D14" s="26">
+        <v>8</v>
+      </c>
+      <c r="E14" s="27">
+        <v>8</v>
+      </c>
+      <c r="F14" s="27">
+        <v>8</v>
+      </c>
+      <c r="G14" s="27">
+        <v>8</v>
+      </c>
+      <c r="H14" s="27">
+        <v>8</v>
+      </c>
+      <c r="I14" s="27">
+        <v>8</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0</v>
+      </c>
+      <c r="K14" s="28">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="72">
+        <v>1</v>
+      </c>
+      <c r="N14" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="O14" s="45">
+        <v>4</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
     </row>
-    <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="19" t="s">
+    <row r="15" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E15" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H15" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="I15" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="N15" s="24" t="s">
+      <c r="D15" s="26">
+        <v>8</v>
+      </c>
+      <c r="E15" s="27">
+        <v>8</v>
+      </c>
+      <c r="F15" s="27">
+        <v>8</v>
+      </c>
+      <c r="G15" s="27">
+        <v>8</v>
+      </c>
+      <c r="H15" s="27">
+        <v>8</v>
+      </c>
+      <c r="I15" s="27">
+        <v>8</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="69">
+        <v>3</v>
+      </c>
+      <c r="N15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="O15" s="45">
+        <v>4</v>
+      </c>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
     </row>
-    <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="19" t="s">
+    <row r="16" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="E16" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H16" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="N16" s="24" t="s">
+      <c r="D16" s="27">
+        <v>8</v>
+      </c>
+      <c r="E16" s="27">
+        <v>8</v>
+      </c>
+      <c r="F16" s="27">
+        <v>8</v>
+      </c>
+      <c r="G16" s="27">
+        <v>8</v>
+      </c>
+      <c r="H16" s="27">
+        <v>8</v>
+      </c>
+      <c r="I16" s="27">
+        <v>8</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="73">
+        <v>6</v>
+      </c>
+      <c r="N16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="O16" s="45">
+        <v>10</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
     </row>
-    <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="36" t="s">
+    <row r="17" spans="1:25" ht="32.25" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="H17" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="I17" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="J17" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="N17" s="24" t="s">
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27">
+        <v>2</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2</v>
+      </c>
+      <c r="H17" s="27">
+        <v>2</v>
+      </c>
+      <c r="I17" s="27">
+        <v>2</v>
+      </c>
+      <c r="J17" s="27">
+        <v>0</v>
+      </c>
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="74">
+        <v>2</v>
+      </c>
+      <c r="N17" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="O17" s="45">
+        <v>4</v>
+      </c>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
     </row>
-    <row r="18" ht="36.0" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="1:25" ht="36" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="E18" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="H18" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="I18" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="J18" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="N18" s="24" t="s">
+      <c r="D18" s="27">
+        <v>8</v>
+      </c>
+      <c r="E18" s="27">
+        <v>8</v>
+      </c>
+      <c r="F18" s="27">
+        <v>8</v>
+      </c>
+      <c r="G18" s="27">
+        <v>8</v>
+      </c>
+      <c r="H18" s="27">
+        <v>8</v>
+      </c>
+      <c r="I18" s="27">
+        <v>8</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0</v>
+      </c>
+      <c r="K18" s="28">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="73">
+        <v>6</v>
+      </c>
+      <c r="N18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="30">
-        <v>6.0</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="O18" s="45">
+        <v>6</v>
+      </c>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
     </row>
-    <row r="19" ht="40.5" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="36" t="s">
+    <row r="19" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="F19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="H19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="I19" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="J19" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="N19" s="24" t="s">
+      <c r="D19" s="27">
+        <v>4</v>
+      </c>
+      <c r="E19" s="27">
+        <v>4</v>
+      </c>
+      <c r="F19" s="27">
+        <v>4</v>
+      </c>
+      <c r="G19" s="27">
+        <v>4</v>
+      </c>
+      <c r="H19" s="27">
+        <v>4</v>
+      </c>
+      <c r="I19" s="27">
+        <v>4</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0</v>
+      </c>
+      <c r="K19" s="28">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="70">
+        <v>4</v>
+      </c>
+      <c r="N19" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="O19" s="45">
+        <v>2</v>
+      </c>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
     </row>
-    <row r="20" ht="42.0" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="1:25" ht="42" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="F20" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="H20" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="I20" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="N20" s="24" t="s">
+      <c r="D20" s="27">
+        <v>12</v>
+      </c>
+      <c r="E20" s="27">
+        <v>12</v>
+      </c>
+      <c r="F20" s="27">
+        <v>12</v>
+      </c>
+      <c r="G20" s="27">
+        <v>12</v>
+      </c>
+      <c r="H20" s="27">
+        <v>12</v>
+      </c>
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0</v>
+      </c>
+      <c r="K20" s="28">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="74">
+        <v>2</v>
+      </c>
+      <c r="N20" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="30">
-        <v>16.0</v>
-      </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
+      <c r="O20" s="45">
+        <v>16</v>
+      </c>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
     </row>
-    <row r="21" ht="39.0" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39" t="s">
+    <row r="21" spans="1:25" ht="39" customHeight="1" thickBot="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="12">
         <f>SUM(D6:D20)</f>
         <v>86</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="13">
         <f>(D21/6)*5</f>
-        <v>71.66666667</v>
-      </c>
-      <c r="F21" s="41">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="F21" s="13">
         <f>(D21/6)*4</f>
-        <v>57.33333333</v>
-      </c>
-      <c r="G21" s="41">
+        <v>57.333333333333336</v>
+      </c>
+      <c r="G21" s="13">
         <f>(D21/6)*3</f>
         <v>43</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="13">
         <f>(D21/6)*2</f>
-        <v>28.66666667</v>
-      </c>
-      <c r="I21" s="42">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I21" s="13">
         <f>(D21/6)*1</f>
-        <v>14.33333333</v>
-      </c>
-      <c r="J21" s="40">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="J21" s="12">
         <f>(D21/6)*0</f>
         <v>0</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="14">
         <f>SUM(K10:K20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="L21" s="15"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="60">
         <f>SUM(O6:O20)</f>
         <v>86</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P21" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="60">
         <f>O21</f>
         <v>86</v>
       </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
-    <row r="22" ht="49.5" customHeight="1">
-      <c r="A22" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="B22" s="46" t="s">
+    <row r="22" spans="1:25" ht="49.5" customHeight="1">
+      <c r="A22" s="35">
+        <v>2</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="50"/>
-      <c r="M22" s="51">
-        <v>4.0</v>
-      </c>
-      <c r="N22" s="15" t="s">
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39">
+        <v>0</v>
+      </c>
+      <c r="K22" s="40">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="62">
+        <v>4</v>
+      </c>
+      <c r="N22" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="O22" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
     </row>
-    <row r="23" ht="45.0" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="53" t="s">
+    <row r="23" spans="1:25" ht="45" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="15" t="s">
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
+        <v>0</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="45">
         <v>0.5</v>
       </c>
-      <c r="P23" s="26" t="s">
+      <c r="P23" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="26" t="s">
+      <c r="Q23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="26" t="s">
+      <c r="R23" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="S23" s="26" t="s">
+      <c r="S23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="T23" s="26" t="s">
+      <c r="T23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U23" s="27" t="s">
+      <c r="U23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="W23" s="27" t="s">
+      <c r="W23" s="51" t="s">
         <v>19</v>
       </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
     </row>
-    <row r="24" ht="48.0" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="53" t="s">
+    <row r="24" spans="1:25" ht="48" customHeight="1">
+      <c r="A24" s="41"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="56"/>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27">
+        <v>1</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0</v>
+      </c>
       <c r="L24" s="15"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="15" t="s">
+      <c r="M24" s="50"/>
+      <c r="N24" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="45">
         <v>0.5</v>
       </c>
-      <c r="P24" s="26">
-        <f t="shared" ref="P24:W24" si="1">D36</f>
-        <v>25</v>
-      </c>
-      <c r="Q24" s="60">
-        <f t="shared" si="1"/>
-        <v>20.83333333</v>
-      </c>
-      <c r="R24" s="60">
-        <f t="shared" si="1"/>
-        <v>16.66666667</v>
-      </c>
-      <c r="S24" s="60">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="T24" s="60">
-        <f t="shared" si="1"/>
-        <v>8.333333333</v>
-      </c>
-      <c r="U24" s="60">
-        <f t="shared" si="1"/>
-        <v>4.166666667</v>
-      </c>
-      <c r="V24" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="26"/>
+      <c r="P24" s="46">
+        <f t="shared" ref="P24:W24" si="0">D31</f>
+        <v>35</v>
+      </c>
+      <c r="Q24" s="47">
+        <f t="shared" si="0"/>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="R24" s="47">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="S24" s="47">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="T24" s="47">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="U24" s="47">
+        <f t="shared" si="0"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="V24" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="15"/>
     </row>
-    <row r="25" ht="40.5" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="53" t="s">
+    <row r="25" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="54">
-        <v>4.0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="N25" s="15" t="s">
+      <c r="D25" s="26">
+        <v>4</v>
+      </c>
+      <c r="E25" s="27">
+        <v>4</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="27">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="52">
+        <v>1</v>
+      </c>
+      <c r="N25" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="45">
         <v>0.5</v>
       </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
     </row>
-    <row r="26" ht="42.0" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="53" t="s">
+    <row r="26" spans="1:25" ht="42" customHeight="1">
+      <c r="A26" s="41"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="54">
-        <v>6.0</v>
-      </c>
-      <c r="E26" s="55">
-        <v>6.0</v>
-      </c>
-      <c r="F26" s="55">
-        <v>6.0</v>
-      </c>
-      <c r="G26" s="55">
-        <v>6.0</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="N26" s="15" t="s">
+      <c r="D26" s="26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="27">
+        <v>6</v>
+      </c>
+      <c r="F26" s="27">
+        <v>6</v>
+      </c>
+      <c r="G26" s="27">
+        <v>6</v>
+      </c>
+      <c r="H26" s="27">
+        <v>6</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0</v>
+      </c>
+      <c r="K26" s="28">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="54">
+        <v>2</v>
+      </c>
+      <c r="N26" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="O26" s="45">
+        <v>3</v>
+      </c>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
     </row>
-    <row r="27" ht="36.0" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="53" t="s">
+    <row r="27" spans="1:25" ht="36" customHeight="1">
+      <c r="A27" s="41"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="54">
-        <v>8.0</v>
-      </c>
-      <c r="E27" s="55">
-        <v>8.0</v>
-      </c>
-      <c r="F27" s="55">
-        <v>8.0</v>
-      </c>
-      <c r="G27" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="56"/>
+      <c r="D27" s="26">
+        <v>8</v>
+      </c>
+      <c r="E27" s="27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="27">
+        <v>8</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="28">
+        <v>0</v>
+      </c>
       <c r="L27" s="15"/>
-      <c r="M27" s="64">
-        <v>6.0</v>
-      </c>
-      <c r="N27" s="15" t="s">
+      <c r="M27" s="55">
+        <v>6</v>
+      </c>
+      <c r="N27" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
+      <c r="O27" s="44">
+        <v>6</v>
+      </c>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
     </row>
-    <row r="28" ht="39.0" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="53" t="s">
+    <row r="28" spans="1:25" ht="39" customHeight="1">
+      <c r="A28" s="41"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="54">
-        <v>4.0</v>
-      </c>
-      <c r="E28" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="F28" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="G28" s="55">
-        <v>4.0</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="56"/>
+      <c r="D28" s="26">
+        <v>4</v>
+      </c>
+      <c r="E28" s="27">
+        <v>4</v>
+      </c>
+      <c r="F28" s="27">
+        <v>4</v>
+      </c>
+      <c r="G28" s="27">
+        <v>4</v>
+      </c>
+      <c r="H28" s="27">
+        <v>4</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>0</v>
+      </c>
+      <c r="K28" s="28">
+        <v>0</v>
+      </c>
       <c r="L28" s="15"/>
-      <c r="M28" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="N28" s="15" t="s">
+      <c r="M28" s="56">
+        <v>3</v>
+      </c>
+      <c r="N28" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
+      <c r="O28" s="44">
+        <v>8</v>
+      </c>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
     </row>
-    <row r="29" ht="24.0" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
+    <row r="29" spans="1:25" ht="24" customHeight="1">
+      <c r="A29" s="41"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="26">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27">
+        <v>6</v>
+      </c>
+      <c r="F29" s="27">
+        <v>6</v>
+      </c>
+      <c r="G29" s="27">
+        <v>6</v>
+      </c>
+      <c r="H29" s="27">
+        <v>6</v>
+      </c>
+      <c r="I29" s="27">
+        <v>6</v>
+      </c>
+      <c r="J29" s="27">
+        <v>0</v>
+      </c>
+      <c r="K29" s="42">
+        <v>0</v>
+      </c>
       <c r="L29" s="15"/>
-      <c r="M29" s="68">
-        <v>5.0</v>
-      </c>
-      <c r="N29" s="69" t="s">
+      <c r="M29" s="57">
+        <v>5</v>
+      </c>
+      <c r="N29" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
+      <c r="O29" s="44">
+        <v>4</v>
+      </c>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
     </row>
-    <row r="30" ht="25.5" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67"/>
+    <row r="30" spans="1:25" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A30" s="41"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="26">
+        <v>4</v>
+      </c>
+      <c r="E30" s="27">
+        <v>4</v>
+      </c>
+      <c r="F30" s="27">
+        <v>4</v>
+      </c>
+      <c r="G30" s="27">
+        <v>4</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0</v>
+      </c>
+      <c r="K30" s="28">
+        <v>0</v>
+      </c>
       <c r="L30" s="15"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
+      <c r="M30" s="58">
+        <v>6</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="60">
+        <v>5</v>
+      </c>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
     </row>
-    <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
+    <row r="31" spans="1:25" ht="30" customHeight="1" thickBot="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUM(D22:D30)</f>
+        <v>35</v>
+      </c>
+      <c r="E31" s="13">
+        <f>(D31/6)*5</f>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="F31" s="13">
+        <f>(D31/6)*4</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G31" s="13">
+        <f>(D31/6)*3</f>
+        <v>17.5</v>
+      </c>
+      <c r="H31" s="13">
+        <f>(D31/6)*2</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="I31" s="13">
+        <f>(D31/6)*1</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="J31" s="13">
+        <f>(D31/6)*0</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
       <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
     </row>
-    <row r="32" ht="48.0" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67"/>
+    <row r="32" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
       <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
     </row>
-    <row r="33" ht="37.5" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
+    <row r="33" spans="2:20" ht="14.4">
+      <c r="L33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
     </row>
-    <row r="34" ht="42.0" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
+    <row r="34" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B34" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="L34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
     </row>
-    <row r="35" ht="49.5" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+    <row r="35" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B35" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="77"/>
+      <c r="L35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
     </row>
-    <row r="36" ht="34.5" customHeight="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="75">
-        <f>sum(D22:D35)</f>
-        <v>25</v>
-      </c>
-      <c r="E36" s="76">
-        <f>(D36/6)*5</f>
-        <v>20.83333333</v>
-      </c>
-      <c r="F36" s="76">
-        <f>(D36/6)*4</f>
-        <v>16.66666667</v>
-      </c>
-      <c r="G36" s="76">
-        <f>(D36/6)*3</f>
-        <v>12.5</v>
-      </c>
-      <c r="H36" s="76">
-        <f>(D36/6)*2</f>
-        <v>8.333333333</v>
-      </c>
-      <c r="I36" s="76">
-        <f>(D36/6)*1</f>
-        <v>4.166666667</v>
-      </c>
-      <c r="J36" s="76">
-        <f>(D36/6)*0</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="77">
-        <v>0.0</v>
-      </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
+    <row r="36" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B36" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="L36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
+    <row r="37" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B37" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="L37" s="1"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="L38" s="15"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+    <row r="38" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B38" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="77"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+    <row r="39" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B39" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="77"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
+    <row r="40" spans="2:20" ht="14.25" customHeight="1">
+      <c r="B40" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="77"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="L42" s="15"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="41" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="42" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="43" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="44" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="45" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="46" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="47" spans="2:20" ht="14.25" customHeight="1"/>
+    <row r="48" spans="2:20" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2606,11 +3048,11 @@
     <row r="161" ht="14.25" customHeight="1"/>
     <row r="162" ht="14.25" customHeight="1"/>
     <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
     <row r="169" ht="15.75" customHeight="1"/>
     <row r="170" ht="15.75" customHeight="1"/>
     <row r="171" ht="15.75" customHeight="1"/>
@@ -3438,30 +3880,23 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:B36"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:B31"/>
     <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
     <mergeCell ref="M22:M24"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>